--- a/questions/Server Command Table A8.xlsx
+++ b/questions/Server Command Table A8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\SimplicityStudio\v5_workspace\ecen5823-assignment8-vido2373\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B02094-0DE1-4934-A625-3BF118055DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A4DB7-330B-4306-A590-66E6CD80C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -564,9 +564,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -616,6 +613,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,6 +709,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40A7218-2B33-4354-9CAC-78100FA6A6CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9243060"/>
+          <a:ext cx="7772400" cy="5829300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,8 +1846,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1803,13 +1864,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -1861,7 +1922,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
@@ -1877,7 +1938,7 @@
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1891,7 +1952,7 @@
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
@@ -1903,7 +1964,7 @@
       <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -1915,7 +1976,7 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -1925,7 +1986,7 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
@@ -1935,7 +1996,7 @@
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
@@ -1943,7 +2004,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
@@ -1959,7 +2020,7 @@
       <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
@@ -1973,7 +2034,7 @@
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
@@ -1981,7 +2042,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="43"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
@@ -1997,7 +2058,7 @@
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
@@ -2009,7 +2070,7 @@
       <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
@@ -2017,7 +2078,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
@@ -2025,7 +2086,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2035,7 +2096,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
@@ -2049,7 +2110,7 @@
       <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -2059,7 +2120,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
@@ -2079,7 +2140,7 @@
       <c r="E24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2089,7 +2150,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="48"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
@@ -2103,7 +2164,7 @@
         <v>46</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -2113,7 +2174,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -2131,7 +2192,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -2139,7 +2200,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
@@ -2149,7 +2210,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="31"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
@@ -2159,11 +2220,11 @@
       <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2171,9 +2232,9 @@
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="34"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="46"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
@@ -2181,46 +2242,51 @@
         <v>32</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="6"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="29"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="33"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2231,5 +2297,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>